--- a/biology/Botanique/Phyllodie/Phyllodie.xlsx
+++ b/biology/Botanique/Phyllodie/Phyllodie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, la phyllodie est une mutation génétique transformant des organes floraux en feuilles. Cela génère des tératologies végétales.
-Les fleurs verdissent et deviennent des gousses ne produisant pas de graines. Il n’y a pas d’impact sur le rendement et il n’y a pas non plus de moyens de lutte. L’origine de cette « mutation » est encore mal connue et pourrait être due à différents facteurs tels que des températures trop chaudes au moment de la formation du bouton floral[1], une réaction à l'attaque d'un insecte, un virus ou plus rarement des phytoplasmes.
+Les fleurs verdissent et deviennent des gousses ne produisant pas de graines. Il n’y a pas d’impact sur le rendement et il n’y a pas non plus de moyens de lutte. L’origine de cette « mutation » est encore mal connue et pourrait être due à différents facteurs tels que des températures trop chaudes au moment de la formation du bouton floral, une réaction à l'attaque d'un insecte, un virus ou plus rarement des phytoplasmes.
 			Phyllodie chez un cultivar de rosier ancien  'Prolifera de Redouté'
 			Phyllodie causée par une infection par phytoplasme sur un Cosmos spp.
 			Phyllodie sur Solidago
